--- a/Group Assignments/All Teams.xlsx
+++ b/Group Assignments/All Teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 390\STOR390_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94BB17-04A1-45C6-9FE7-EFAA1789A4E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2CC462-667D-4611-A92E-A993141B95F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="80" windowWidth="9600" windowHeight="13610" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
+    <workbookView xWindow="4300" yWindow="100" windowWidth="9600" windowHeight="13610" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B45"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1100,7 +1100,9 @@
       <c r="B2" s="1">
         <v>9</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1113,7 +1115,9 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1126,7 +1130,9 @@
       <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1139,7 +1145,9 @@
       <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1152,7 +1160,9 @@
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1165,7 +1175,9 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1178,7 +1190,9 @@
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1191,7 +1205,9 @@
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1204,7 +1220,9 @@
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1217,7 +1235,9 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1230,7 +1250,9 @@
       <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1243,7 +1265,9 @@
       <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1256,7 +1280,9 @@
       <c r="B14" s="1">
         <v>8</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1269,7 +1295,9 @@
       <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1282,7 +1310,9 @@
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1295,7 +1325,9 @@
       <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1308,7 +1340,9 @@
       <c r="B18" s="1">
         <v>6</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1321,7 +1355,9 @@
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1334,7 +1370,9 @@
       <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1347,7 +1385,9 @@
       <c r="B21" s="1">
         <v>5</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1360,7 +1400,9 @@
       <c r="B22" s="1">
         <v>9</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1373,7 +1415,9 @@
       <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1386,7 +1430,9 @@
       <c r="B24" s="1">
         <v>9</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1399,7 +1445,9 @@
       <c r="B25" s="1">
         <v>8</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1412,7 +1460,9 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1425,7 +1475,9 @@
       <c r="B27" s="1">
         <v>7</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1438,7 +1490,9 @@
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1451,7 +1505,9 @@
       <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="1">
+        <v>8</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1464,7 +1520,9 @@
       <c r="B30" s="1">
         <v>3</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1477,7 +1535,9 @@
       <c r="B31" s="1">
         <v>8</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1490,7 +1550,9 @@
       <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1503,7 +1565,9 @@
       <c r="B33" s="1">
         <v>6</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="1">
+        <v>6</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1516,7 +1580,9 @@
       <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1529,7 +1595,9 @@
       <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1542,7 +1610,9 @@
       <c r="B36" s="1">
         <v>4</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1555,7 +1625,9 @@
       <c r="B37" s="1">
         <v>6</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="1">
+        <v>9</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1568,7 +1640,9 @@
       <c r="B38" s="1">
         <v>1</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1581,7 +1655,9 @@
       <c r="B39" s="1">
         <v>5</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="1">
+        <v>7</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1594,7 +1670,9 @@
       <c r="B40" s="1">
         <v>4</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="1">
+        <v>8</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1607,7 +1685,9 @@
       <c r="B41" s="1">
         <v>6</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="1">
+        <v>9</v>
+      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1620,7 +1700,9 @@
       <c r="B42" s="1">
         <v>9</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1633,7 +1715,9 @@
       <c r="B43" s="1">
         <v>1</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="1">
+        <v>8</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1646,7 +1730,9 @@
       <c r="B44" s="1">
         <v>3</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1659,13 +1745,18 @@
       <c r="B45" s="1">
         <v>7</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="1">
+        <v>9</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="I45"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Group Assignments/All Teams.xlsx
+++ b/Group Assignments/All Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 390\STOR390_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2CC462-667D-4611-A92E-A993141B95F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414E1945-A2E7-42D2-A56A-6EAFB132F26F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="100" windowWidth="9600" windowHeight="13610" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +331,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,8 +520,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -628,6 +654,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -676,23 +717,25 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1052,706 +1095,1325 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" style="5" customWidth="1"/>
-    <col min="2" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7265625" style="1"/>
-    <col min="9" max="9" width="13.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="6"/>
+    <col min="5" max="6" width="11" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" style="6" customWidth="1"/>
     <col min="10" max="10" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="I2"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="I3"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="I4"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="I5"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="I6"/>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="I7"/>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="I8"/>
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="I9"/>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="I10"/>
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="I11"/>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="I12"/>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="I13"/>
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="I14"/>
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="I15"/>
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="I16"/>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="I17"/>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="4">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="I18"/>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="I19"/>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="I20"/>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="I21"/>
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="I22"/>
+      <c r="B22" s="3">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="1">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="I23"/>
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="I24"/>
+      <c r="B24" s="3">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="I25"/>
+      <c r="B25" s="3">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="I26"/>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="1">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
-        <v>7</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="I27"/>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="4">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>7</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="I28"/>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1">
-        <v>8</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="I29"/>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6</v>
+      </c>
+      <c r="F29" s="4">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="I30"/>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3">
+        <v>9</v>
+      </c>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="1">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="I31"/>
+      <c r="B31" s="3">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4">
+        <v>6</v>
+      </c>
+      <c r="G31" s="2">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="I32"/>
+      <c r="B32" s="3">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7</v>
+      </c>
+      <c r="F32" s="4">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="1">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1">
-        <v>6</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="I33"/>
+      <c r="B33" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7</v>
+      </c>
+      <c r="I33" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="I34"/>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>3</v>
+      </c>
+      <c r="I34" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="I35"/>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>9</v>
+      </c>
+      <c r="H35" s="3">
+        <v>8</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="1">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="I36"/>
+      <c r="B36" s="3">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4">
+        <v>8</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3</v>
+      </c>
+      <c r="H36" s="3">
+        <v>9</v>
+      </c>
+      <c r="I36" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="1">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1">
-        <v>9</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="I37"/>
+      <c r="B37" s="3">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>7</v>
+      </c>
+      <c r="I37" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="I38"/>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="1">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1">
-        <v>7</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="I39"/>
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="1">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1">
-        <v>8</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="I40"/>
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>8</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4</v>
+      </c>
+      <c r="I40" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="1">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1">
-        <v>9</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="I41"/>
+      <c r="B41" s="3">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2">
+        <v>6</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="1">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="I42"/>
+      <c r="B42" s="3">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>8</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="I43"/>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4">
+        <v>6</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="1">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1">
-        <v>5</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="I44"/>
+      <c r="B44" s="3">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>3</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="1">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1">
-        <v>9</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="I45"/>
+      <c r="B45" s="3">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2">
+        <v>8</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>7</v>
+      </c>
+      <c r="H45" s="3">
+        <v>6</v>
+      </c>
+      <c r="I45" s="2">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
